--- a/RFIDSolution/Server/wwwroot/ExcelTemplates/TransferTemplate.xlsx
+++ b/RFIDSolution/Server/wwwroot/ExcelTemplates/TransferTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\dongup\RFIDSolution\RFIDSolution\Server\wwwroot\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3583D71-4CAB-4C70-BB5F-BDCB3E4DDF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA08C1-D308-4442-B771-91CC2D2BE2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{867FD762-95B8-4FC0-820B-E4930BCB9ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{867FD762-95B8-4FC0-820B-E4930BCB9ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Kho/Stock</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>EPC</t>
   </si>
   <si>
     <t>TRANSFER BY</t>
@@ -491,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28892BF-1B2F-4FFE-9916-DFD31249DDB7}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -503,22 +500,21 @@
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -532,10 +528,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -549,32 +544,31 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -591,36 +585,33 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
